--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,38 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{3D3E7C56-8264-481E-AEE6-15C98540955A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D3F7F6C-C127-4862-A744-DE3CB9207107}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notebook_overview" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notebook_overview!$A$1:$I$8</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Notebook name</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>required prior knowledge</t>
-  </si>
-  <si>
     <t>dealing with</t>
   </si>
   <si>
     <t>GIS_pyshp</t>
   </si>
   <si>
-    <t>Excercise_notebooks\On_topic\06_GIS\GIS_pyshp.ipynb</t>
-  </si>
-  <si>
     <t>basic GIS, read and write text files</t>
   </si>
   <si>
@@ -49,12 +43,6 @@
     <t>Iotextfiles</t>
   </si>
   <si>
-    <t>Excercise_notebooks\On_topic\07_read_write_text_files\IOtextfiles.ipynb</t>
-  </si>
-  <si>
-    <t>open with, read, write, loadtxt, pandas.read_csv</t>
-  </si>
-  <si>
     <t>py_exploratory_comp_1</t>
   </si>
   <si>
@@ -73,24 +61,15 @@
     <t>https://mbakker7.github.io/exploratory_computing_with_python/</t>
   </si>
   <si>
-    <t>Excercise_notebooks\Basic\notebook1_basics_plotting\py_exploratory_comp_1.ipynb</t>
-  </si>
-  <si>
     <t xml:space="preserve">- </t>
   </si>
   <si>
     <t>py_exploratory_comp_2</t>
-  </si>
-  <si>
-    <t>Excercise_notebooks\Basic\notebook2_arrays\py_exploratory_comp_2.ipynb</t>
   </si>
   <si>
     <t>packages:
 pandas (dataframe)
 numpy (arrays)</t>
-  </si>
-  <si>
-    <t>opmerking</t>
   </si>
   <si>
     <t>gaat redelijk diep in op het verschil tussen arrays en matrices wat voor veel mensen overbodige informatie zal zijn</t>
@@ -137,9 +116,6 @@
   </si>
   <si>
     <t>py_exploratory_comp_4</t>
-  </si>
-  <si>
-    <t>Excercise_notebooks\Basic\notebook3_for_and_if\py_exploratory_comp_3.ipynb</t>
   </si>
   <si>
     <t>testen wordt geïntroduceerd, opgaves zijn behoorlijk wiskundig en daarom misschien overdreven gecompliceerd</t>
@@ -155,13 +131,56 @@
 scipy (optimize.fsolve, special.erf, integrate.quad)</t>
   </si>
   <si>
-    <t>Excercise_notebooks\On_topic\04_Functional_programming\notebook4_functionspy_exploratory_comp_4.ipynb</t>
+    <t>prerequisites</t>
+  </si>
+  <si>
+    <t>built-in functions: open, read, write
+Syntax: with
+packages:
+numpy (loadtxt)
+pandas (dataframes, read_csv, to_csv)</t>
+  </si>
+  <si>
+    <t>onderdeel</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>functional programming</t>
+  </si>
+  <si>
+    <t>nummer</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>read write text files</t>
+  </si>
+  <si>
+    <t>opmerking Onno</t>
+  </si>
+  <si>
+    <t>Opmerking Petra</t>
+  </si>
+  <si>
+    <t>use_jupyter</t>
+  </si>
+  <si>
+    <t>Jupyter: [shift][enter], kernel (interrupt, restart), output window, modes (edit, command), keyboard shortcuts, cell types (code, markdown, Raw NBConvert)</t>
+  </si>
+  <si>
+    <t>mogelijk nog dingen dubbelop met notebooks van Mark. Maar dat is mogelijk ook wel goed. [shift][tab] nog niet genoemd maar is wel handig om te noemen.</t>
+  </si>
+  <si>
+    <t>Syntax: for-statement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,158 +1018,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="3" width="58" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="7" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I8" xr:uid="{9BB88C17-8B91-4E47-A536-010FCD44B292}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="basis"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D3F7F6C-C127-4862-A744-DE3CB9207107}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8ACD2CBA-69EC-428D-98D6-972CA950B287}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Notebook name</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>Syntax: for-statement</t>
+  </si>
+  <si>
+    <t>eigen_toepassing</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>creating coding blocks, think about goal, in- and output of code</t>
+  </si>
+  <si>
+    <t>Opdrachten toevoegen voor cursusdag 2 t/m 4</t>
   </si>
 </sst>
 </file>
@@ -1020,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1151,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -1165,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -1214,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1227,6 +1239,29 @@
       </c>
       <c r="H8" s="2" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8ACD2CBA-69EC-428D-98D6-972CA950B287}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2E43271-44FA-49E9-9933-AAE234D60A98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Notebook name</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>Opdrachten toevoegen voor cursusdag 2 t/m 4</t>
+  </si>
+  <si>
+    <t>code quality</t>
+  </si>
+  <si>
+    <t>afmaken</t>
+  </si>
+  <si>
+    <t>common_pitfalls.ipynb</t>
+  </si>
+  <si>
+    <t>Quality_ZEN_of_Python.ipynb</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>the ZEN of Python</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1050,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1262,6 +1280,46 @@
       </c>
       <c r="H9" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2E43271-44FA-49E9-9933-AAE234D60A98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7130B64E-789F-4B38-993B-AD06D4DDFD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notebook_overview!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Notebook name</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>the ZEN of Python</t>
+  </si>
+  <si>
+    <t>whatsapp data analysis</t>
+  </si>
+  <si>
+    <t>practical examples</t>
+  </si>
+  <si>
+    <t>- pandas dataframes</t>
+  </si>
+  <si>
+    <t>pandas: - creating columns, groupby</t>
+  </si>
+  <si>
+    <t>exercise_whatsapp</t>
+  </si>
+  <si>
+    <t>showcase</t>
+  </si>
+  <si>
+    <t>pandas, plots, wordcloud</t>
   </si>
 </sst>
 </file>
@@ -1050,18 +1071,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="3" width="58" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="66.85546875" customWidth="1"/>
@@ -1319,6 +1340,46 @@
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>48</v>
       </c>
     </row>

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7130B64E-789F-4B38-993B-AD06D4DDFD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AECB74DB-D5F3-42CE-A157-33074CC54EF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Notebook name</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>pandas, plots, wordcloud</t>
+  </si>
+  <si>
+    <t>groundwater_model</t>
+  </si>
+  <si>
+    <t>flopy,  animation</t>
   </si>
 </sst>
 </file>
@@ -1071,13 +1077,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,6 +1389,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I8" xr:uid="{9BB88C17-8B91-4E47-A536-010FCD44B292}">
     <filterColumn colId="1">

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AECB74DB-D5F3-42CE-A157-33074CC54EF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45EDABC6-FE98-4923-AA78-EF28B61ED151}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Notebook name</t>
   </si>
@@ -231,7 +231,13 @@
     <t>groundwater_model</t>
   </si>
   <si>
-    <t>flopy,  animation</t>
+    <t>flopy,  matplotlib animation</t>
+  </si>
+  <si>
+    <t>congress_twitter_analysis</t>
+  </si>
+  <si>
+    <t>textblob, matplotlib, sentiment analyse, json</t>
   </si>
 </sst>
 </file>
@@ -1077,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,6 +1415,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I8" xr:uid="{9BB88C17-8B91-4E47-A536-010FCD44B292}">
     <filterColumn colId="1">

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45EDABC6-FE98-4923-AA78-EF28B61ED151}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44D745DB-CAF3-4815-AD29-B3304B6DEA43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Notebook name</t>
   </si>
@@ -238,6 +238,33 @@
   </si>
   <si>
     <t>textblob, matplotlib, sentiment analyse, json</t>
+  </si>
+  <si>
+    <t>create exercise 1 and 5</t>
+  </si>
+  <si>
+    <t>1. variable names (re-using variable names, overwriting built-in functions)
+2. nested loops and statements, vectorization
+3. copy-paste of code</t>
+  </si>
+  <si>
+    <t>01_python4math</t>
+  </si>
+  <si>
+    <t>teveel informatie over dingen die niet moeten i.p.v. die wel moeten. Teveel termen die worden geïntroduceerd. Geen opgaven</t>
+  </si>
+  <si>
+    <t>Jupyter: end of lines (brackets, paranthesis and \), 
+Syntax: indentation, comments, , arithmetic operators (+, -, *, /, //, %, **), variable assignment, relational operators (==, !=, &lt;, &gt;, &lt;=, &gt;=), built-in functions
+data types: float, int, str, bool
+built-in functions: help(), print(), complex(), bin(), hex(), oct(), str(), round(), abs(), divmod(), input(), eval()
+packages: math</t>
+  </si>
+  <si>
+    <t>voorbeeld_toepassing</t>
+  </si>
+  <si>
+    <t>example of Python application</t>
   </si>
 </sst>
 </file>
@@ -1083,13 +1110,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,6 +1177,9 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1170,6 +1200,9 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1317,56 +1350,65 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1377,16 +1419,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1397,7 +1439,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>51</v>
@@ -1406,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1417,7 +1459,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
@@ -1426,7 +1468,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1434,6 +1476,43 @@
       <c r="H15" s="2" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I8" xr:uid="{9BB88C17-8B91-4E47-A536-010FCD44B292}">

--- a/notebook_overview.xlsx
+++ b/notebook_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onno__000\Documents\04_mamba\03_cursusmateriaal\raw_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44D745DB-CAF3-4815-AD29-B3304B6DEA43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{328C5835-EE17-41F7-AF5F-2EEA335F6B61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
